--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -82,10 +82,10 @@
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>well</t>
@@ -974,25 +974,25 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7056277056277056</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L12">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1000,13 +1000,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.704225352112676</v>
+        <v>0.6820083682008368</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1078,25 +1078,25 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.5787878787878787</v>
+        <v>0.5617647058823529</v>
       </c>
       <c r="L16">
         <v>191</v>
       </c>
       <c r="M16">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="10:17">
